--- a/biology/Botanique/Amanita_citrina/Amanita_citrina.xlsx
+++ b/biology/Botanique/Amanita_citrina/Amanita_citrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amanita citrina
 Amanita citrina, syn. Amanita mappa,  l'Amanite citrine, est une espèce de champignons basidiomycètes du genre Amanita dans la famille des Amanitaceae.
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'hyménophore (chapeau) de 4 à 8 cm de diamètre, convexe puis étalé, jaune citrin pâle, parfois quasi blanc comme chez sa  variété alba, et couvert de lambeaux de la volve blanchâtres, voire grisâtre, pouvant disparaître avec la pluie. La marge est pectinée.
 Les lames et sa sporée sont blanches.
@@ -545,7 +559,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amanite citrine pousse pendant tout l'automne dans les bois de feuillus ou de conifères, plutôt sur sols siliceux. C'est un champignon très commun.
 </t>
@@ -576,9 +592,11 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'amanite citrine est un comestible médiocre du fait de son odeur de rave ou pomme de terre. Les débutants l'éviteront doublement en raison des risques de confusion avec les amanites mortelles. Légèrement toxique, elle serait ramassée dans les pays d'Europe de L'Est[1]. La plupart des mycologues[2] conseillent de la rejeter.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'amanite citrine est un comestible médiocre du fait de son odeur de rave ou pomme de terre. Les débutants l'éviteront doublement en raison des risques de confusion avec les amanites mortelles. Légèrement toxique, elle serait ramassée dans les pays d'Europe de L'Est. La plupart des mycologues conseillent de la rejeter.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les amanites, des méprises sont possibles avec :
 Amanite phalloïde (Amanita phalloides), jeune ou dans ses formes jaunâtres ou blanches. Celle-ci diffère de l'amanite citrine par son odeur plus discrète à l'état jeune et sa volve plus ample.
